--- a/zhengda.xlsx
+++ b/zhengda.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\50399\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFDEC1A-9FC1-4023-9670-11312653CD57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A2F0CD-A77D-4B30-A429-1D26BF7AA5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{9DCC8321-8189-4DEE-85EA-5B15079A4BE6}"/>
   </bookViews>
@@ -83,7 +83,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,13 +123,26 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -161,11 +174,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -173,6 +183,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -491,7 +507,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="A9" sqref="A9:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -500,122 +516,122 @@
     <col min="2" max="3" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" ht="51.75" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="51.75" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="51.75" customHeight="1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>18.98</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3">
         <v>18.8</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="51.75" customHeight="1">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>15.99</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>15.9</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="51.75" customHeight="1">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>21.99</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>19.899999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="51.75" customHeight="1">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>17.98</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>18.899999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="51.75" customHeight="1">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <v>12.9</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <v>13.9</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="51.75" customHeight="1">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="3">
         <v>17.98</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <v>18.8</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="51.75" customHeight="1">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="3">
         <v>35.979999999999997</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="3">
         <v>36.979999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="51.75" customHeight="1">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="4">
         <v>18.899999999999999</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="4">
         <v>16.899999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="51.75" customHeight="1">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="4">
         <v>14.99</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="4">
         <v>13.8</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="51.75" customHeight="1">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4">
         <v>16.8</v>
       </c>
     </row>

--- a/zhengda.xlsx
+++ b/zhengda.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\50399\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A2F0CD-A77D-4B30-A429-1D26BF7AA5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F287ACDE-412B-4B54-B612-86F251873B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{9DCC8321-8189-4DEE-85EA-5B15079A4BE6}"/>
   </bookViews>
@@ -504,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89EFEB43-B405-4A1D-9BD7-5B1EC3715AAF}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:C11"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -516,7 +516,7 @@
     <col min="2" max="3" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="51.75" customHeight="1">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="51.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -527,7 +527,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="51.75" customHeight="1">
+    <row r="2" spans="1:5" ht="51.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -537,8 +537,11 @@
       <c r="C2" s="3">
         <v>18.8</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="51.75" customHeight="1">
+      <c r="E2" s="3">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="51.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -548,8 +551,11 @@
       <c r="C3" s="3">
         <v>15.9</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="51.75" customHeight="1">
+      <c r="E3" s="3">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="51.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -559,8 +565,11 @@
       <c r="C4" s="3">
         <v>19.899999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="51.75" customHeight="1">
+      <c r="E4" s="3">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="51.75" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -570,8 +579,11 @@
       <c r="C5" s="3">
         <v>18.899999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="51.75" customHeight="1">
+      <c r="E5" s="3">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="51.75" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -581,8 +593,11 @@
       <c r="C6" s="3">
         <v>13.9</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="51.75" customHeight="1">
+      <c r="E6" s="3">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="51.75" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -592,8 +607,11 @@
       <c r="C7" s="3">
         <v>18.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="51.75" customHeight="1">
+      <c r="E7" s="3">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="51.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -603,8 +621,11 @@
       <c r="C8" s="3">
         <v>36.979999999999997</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="51.75" customHeight="1">
+      <c r="E8" s="3">
+        <v>36.979999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="51.75" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -614,8 +635,11 @@
       <c r="C9" s="4">
         <v>16.899999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="51.75" customHeight="1">
+      <c r="E9" s="4">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="51.75" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -625,13 +649,19 @@
       <c r="C10" s="4">
         <v>13.8</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="51.75" customHeight="1">
+      <c r="E10" s="4">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="51.75" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4">
+        <v>16.8</v>
+      </c>
+      <c r="E11" s="4">
         <v>16.8</v>
       </c>
     </row>
